--- a/medicine/Enfance/Wilbert_Awdry/Wilbert_Awdry.xlsx
+++ b/medicine/Enfance/Wilbert_Awdry/Wilbert_Awdry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilbert Vere Awdry (né le 15 juin 1911 à Ampfield et mort le 21 mars 1997 à Rodborough), souvent crédité sous le nom de Rev. W. Awdry, est un ministre anglican, passionné des chemins de fer et auteur pour enfants anglais.
 Il est surtout connu comme du créateur du personnage Thomas le petit train apparu dans The Railway Series (en).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
